--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp6-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp6-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Bmp6</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.651253000000001</v>
+        <v>3.835339</v>
       </c>
       <c r="H2">
-        <v>25.953759</v>
+        <v>11.506017</v>
       </c>
       <c r="I2">
-        <v>0.709322844564615</v>
+        <v>0.4358468215464834</v>
       </c>
       <c r="J2">
-        <v>0.7093228445646149</v>
+        <v>0.4358468215464834</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.039133</v>
+        <v>0.07259900000000001</v>
       </c>
       <c r="N2">
-        <v>0.117399</v>
+        <v>0.217797</v>
       </c>
       <c r="O2">
-        <v>0.00872147833139909</v>
+        <v>0.0162094769588191</v>
       </c>
       <c r="P2">
-        <v>0.00872147833139909</v>
+        <v>0.0162094769588191</v>
       </c>
       <c r="Q2">
-        <v>0.338549483649</v>
+        <v>0.278441776061</v>
       </c>
       <c r="R2">
-        <v>3.046945352841</v>
+        <v>2.505975984549</v>
       </c>
       <c r="S2">
-        <v>0.006186343818836655</v>
+        <v>0.007064849011432263</v>
       </c>
       <c r="T2">
-        <v>0.006186343818836653</v>
+        <v>0.007064849011432263</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.651253000000001</v>
+        <v>3.835339</v>
       </c>
       <c r="H3">
-        <v>25.953759</v>
+        <v>11.506017</v>
       </c>
       <c r="I3">
-        <v>0.709322844564615</v>
+        <v>0.4358468215464834</v>
       </c>
       <c r="J3">
-        <v>0.7093228445646149</v>
+        <v>0.4358468215464834</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +620,22 @@
         <v>12.561996</v>
       </c>
       <c r="O3">
-        <v>0.933220691088698</v>
+        <v>0.9349228167457665</v>
       </c>
       <c r="P3">
-        <v>0.9332206910886979</v>
+        <v>0.9349228167457664</v>
       </c>
       <c r="Q3">
-        <v>36.225668526996</v>
+        <v>16.059837725548</v>
       </c>
       <c r="R3">
-        <v>326.031016742964</v>
+        <v>144.538539529932</v>
       </c>
       <c r="S3">
-        <v>0.6619547552095911</v>
+        <v>0.4074831380699277</v>
       </c>
       <c r="T3">
-        <v>0.6619547552095909</v>
+        <v>0.4074831380699276</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +643,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.651253000000001</v>
+        <v>3.835339</v>
       </c>
       <c r="H4">
-        <v>25.953759</v>
+        <v>11.506017</v>
       </c>
       <c r="I4">
-        <v>0.709322844564615</v>
+        <v>0.4358468215464834</v>
       </c>
       <c r="J4">
-        <v>0.7093228445646149</v>
+        <v>0.4358468215464834</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2605036666666666</v>
+        <v>0.2188686666666667</v>
       </c>
       <c r="N4">
-        <v>0.781511</v>
+        <v>0.656606</v>
       </c>
       <c r="O4">
-        <v>0.05805783057990301</v>
+        <v>0.04886770629541442</v>
       </c>
       <c r="P4">
-        <v>0.05805783057990301</v>
+        <v>0.04886770629541441</v>
       </c>
       <c r="Q4">
-        <v>2.253683127761</v>
+        <v>0.8394355331446667</v>
       </c>
       <c r="R4">
-        <v>20.283148149849</v>
+        <v>7.554919798302</v>
       </c>
       <c r="S4">
-        <v>0.04118174553618729</v>
+        <v>0.02129883446512345</v>
       </c>
       <c r="T4">
-        <v>0.04118174553618729</v>
+        <v>0.02129883446512345</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +705,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -729,40 +726,40 @@
         <v>5.232408</v>
       </c>
       <c r="I5">
-        <v>0.143003043469836</v>
+        <v>0.1982031137129723</v>
       </c>
       <c r="J5">
-        <v>0.143003043469836</v>
+        <v>0.1982031137129723</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.039133</v>
+        <v>0.07259900000000001</v>
       </c>
       <c r="N5">
-        <v>0.117399</v>
+        <v>0.217797</v>
       </c>
       <c r="O5">
-        <v>0.00872147833139909</v>
+        <v>0.0162094769588191</v>
       </c>
       <c r="P5">
-        <v>0.00872147833139909</v>
+        <v>0.0162094769588191</v>
       </c>
       <c r="Q5">
-        <v>0.068253274088</v>
+        <v>0.126622529464</v>
       </c>
       <c r="R5">
-        <v>0.614279466792</v>
+        <v>1.139602765176</v>
       </c>
       <c r="S5">
-        <v>0.001247197944946297</v>
+        <v>0.003212768804896627</v>
       </c>
       <c r="T5">
-        <v>0.001247197944946297</v>
+        <v>0.003212768804896627</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +767,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -791,10 +788,10 @@
         <v>5.232408</v>
       </c>
       <c r="I6">
-        <v>0.143003043469836</v>
+        <v>0.1982031137129723</v>
       </c>
       <c r="J6">
-        <v>0.143003043469836</v>
+        <v>0.1982031137129723</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,22 +806,22 @@
         <v>12.561996</v>
       </c>
       <c r="O6">
-        <v>0.933220691088698</v>
+        <v>0.9349228167457665</v>
       </c>
       <c r="P6">
-        <v>0.9332206910886979</v>
+        <v>0.9349228167457664</v>
       </c>
       <c r="Q6">
-        <v>7.303276485152001</v>
+        <v>7.303276485152002</v>
       </c>
       <c r="R6">
         <v>65.729488366368</v>
       </c>
       <c r="S6">
-        <v>0.1334533990547075</v>
+        <v>0.1853046133603135</v>
       </c>
       <c r="T6">
-        <v>0.1334533990547075</v>
+        <v>0.1853046133603135</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +829,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -853,10 +850,10 @@
         <v>5.232408</v>
       </c>
       <c r="I7">
-        <v>0.143003043469836</v>
+        <v>0.1982031137129723</v>
       </c>
       <c r="J7">
-        <v>0.143003043469836</v>
+        <v>0.1982031137129723</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2605036666666666</v>
+        <v>0.2188686666666667</v>
       </c>
       <c r="N7">
-        <v>0.781511</v>
+        <v>0.656606</v>
       </c>
       <c r="O7">
-        <v>0.05805783057990301</v>
+        <v>0.04886770629541442</v>
       </c>
       <c r="P7">
-        <v>0.05805783057990301</v>
+        <v>0.04886770629541441</v>
       </c>
       <c r="Q7">
-        <v>0.4543538231653332</v>
+        <v>0.3817367208053334</v>
       </c>
       <c r="R7">
-        <v>4.089184408487999</v>
+        <v>3.435630487248</v>
       </c>
       <c r="S7">
-        <v>0.008302446470182244</v>
+        <v>0.009685731547762156</v>
       </c>
       <c r="T7">
-        <v>0.008302446470182244</v>
+        <v>0.009685731547762155</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +891,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -909,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.796801</v>
+        <v>3.220265666666667</v>
       </c>
       <c r="H8">
-        <v>5.390403</v>
+        <v>9.660797000000001</v>
       </c>
       <c r="I8">
-        <v>0.1473210870652546</v>
+        <v>0.3659500647405443</v>
       </c>
       <c r="J8">
-        <v>0.1473210870652545</v>
+        <v>0.3659500647405443</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.039133</v>
+        <v>0.07259900000000001</v>
       </c>
       <c r="N8">
-        <v>0.117399</v>
+        <v>0.217797</v>
       </c>
       <c r="O8">
-        <v>0.00872147833139909</v>
+        <v>0.0162094769588191</v>
       </c>
       <c r="P8">
-        <v>0.00872147833139909</v>
+        <v>0.0162094769588191</v>
       </c>
       <c r="Q8">
-        <v>0.07031421353300001</v>
+        <v>0.2337880671343334</v>
       </c>
       <c r="R8">
-        <v>0.632827921797</v>
+        <v>2.104092604209</v>
       </c>
       <c r="S8">
-        <v>0.001284857668597776</v>
+        <v>0.00593185914249021</v>
       </c>
       <c r="T8">
-        <v>0.001284857668597776</v>
+        <v>0.00593185914249021</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,10 +953,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -971,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.796801</v>
+        <v>3.220265666666667</v>
       </c>
       <c r="H9">
-        <v>5.390403</v>
+        <v>9.660797000000001</v>
       </c>
       <c r="I9">
-        <v>0.1473210870652546</v>
+        <v>0.3659500647405443</v>
       </c>
       <c r="J9">
-        <v>0.1473210870652545</v>
+        <v>0.3659500647405443</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +992,22 @@
         <v>12.561996</v>
       </c>
       <c r="O9">
-        <v>0.933220691088698</v>
+        <v>0.9349228167457665</v>
       </c>
       <c r="P9">
-        <v>0.9332206910886979</v>
+        <v>0.9349228167457664</v>
       </c>
       <c r="Q9">
-        <v>7.523802324932001</v>
+        <v>13.48432147453467</v>
       </c>
       <c r="R9">
-        <v>67.714220924388</v>
+        <v>121.358893270812</v>
       </c>
       <c r="S9">
-        <v>0.1374830866829751</v>
+        <v>0.3421350653155252</v>
       </c>
       <c r="T9">
-        <v>0.1374830866829751</v>
+        <v>0.3421350653155252</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1015,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1033,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.796801</v>
+        <v>3.220265666666667</v>
       </c>
       <c r="H10">
-        <v>5.390403</v>
+        <v>9.660797000000001</v>
       </c>
       <c r="I10">
-        <v>0.1473210870652546</v>
+        <v>0.3659500647405443</v>
       </c>
       <c r="J10">
-        <v>0.1473210870652545</v>
+        <v>0.3659500647405443</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,214 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2605036666666666</v>
+        <v>0.2188686666666667</v>
       </c>
       <c r="N10">
-        <v>0.781511</v>
+        <v>0.656606</v>
       </c>
       <c r="O10">
-        <v>0.05805783057990301</v>
+        <v>0.04886770629541442</v>
       </c>
       <c r="P10">
-        <v>0.05805783057990301</v>
+        <v>0.04886770629541441</v>
       </c>
       <c r="Q10">
-        <v>0.4680732487703333</v>
+        <v>0.7048152527757778</v>
       </c>
       <c r="R10">
-        <v>4.212659238933</v>
+        <v>6.343337274982001</v>
       </c>
       <c r="S10">
-        <v>0.00855314271368169</v>
+        <v>0.01788314028252881</v>
       </c>
       <c r="T10">
-        <v>0.008553142713681688</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.004305666666666666</v>
-      </c>
-      <c r="H11">
-        <v>0.012917</v>
-      </c>
-      <c r="I11">
-        <v>0.0003530249002944479</v>
-      </c>
-      <c r="J11">
-        <v>0.0003530249002944478</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.039133</v>
-      </c>
-      <c r="N11">
-        <v>0.117399</v>
-      </c>
-      <c r="O11">
-        <v>0.00872147833139909</v>
-      </c>
-      <c r="P11">
-        <v>0.00872147833139909</v>
-      </c>
-      <c r="Q11">
-        <v>0.0001684936536666666</v>
-      </c>
-      <c r="R11">
-        <v>0.001516442883</v>
-      </c>
-      <c r="S11">
-        <v>3.078899018362352E-06</v>
-      </c>
-      <c r="T11">
-        <v>3.078899018362351E-06</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.004305666666666666</v>
-      </c>
-      <c r="H12">
-        <v>0.012917</v>
-      </c>
-      <c r="I12">
-        <v>0.0003530249002944479</v>
-      </c>
-      <c r="J12">
-        <v>0.0003530249002944478</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>4.187332</v>
-      </c>
-      <c r="N12">
-        <v>12.561996</v>
-      </c>
-      <c r="O12">
-        <v>0.933220691088698</v>
-      </c>
-      <c r="P12">
-        <v>0.9332206910886979</v>
-      </c>
-      <c r="Q12">
-        <v>0.01802925581466666</v>
-      </c>
-      <c r="R12">
-        <v>0.162263302332</v>
-      </c>
-      <c r="S12">
-        <v>0.0003294501414243034</v>
-      </c>
-      <c r="T12">
-        <v>0.0003294501414243033</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.004305666666666666</v>
-      </c>
-      <c r="H13">
-        <v>0.012917</v>
-      </c>
-      <c r="I13">
-        <v>0.0003530249002944479</v>
-      </c>
-      <c r="J13">
-        <v>0.0003530249002944478</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.2605036666666666</v>
-      </c>
-      <c r="N13">
-        <v>0.781511</v>
-      </c>
-      <c r="O13">
-        <v>0.05805783057990301</v>
-      </c>
-      <c r="P13">
-        <v>0.05805783057990301</v>
-      </c>
-      <c r="Q13">
-        <v>0.001121641954111111</v>
-      </c>
-      <c r="R13">
-        <v>0.010094777587</v>
-      </c>
-      <c r="S13">
-        <v>2.049585985178221E-05</v>
-      </c>
-      <c r="T13">
-        <v>2.04958598517822E-05</v>
+        <v>0.0178831402825288</v>
       </c>
     </row>
   </sheetData>
